--- a/output/vendors_data.xlsx
+++ b/output/vendors_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -921,6 +921,242 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>金富錸國際寵物有限公司</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.pawpawland.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>台灣多格漫商貿股份有限公司</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>http://www.doggyman.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>東盈實業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>http://www.tungying.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>麥可貿易有限公司</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>http://www.underworld.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>奧也股份有限公司</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.ovepet.shop</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>沅慶企業有限公司</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.yen-foen.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>竣百有限公司</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.junbai.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>飛輪寵物有限公司</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://heromamapet.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>崧曜國際有限公司</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>瀚揚國際企業有限公司</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.hanyard.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>艾穎實業有限公司</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.odout.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>貓狗甜心數位科技有限公司</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.catdogsweet.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>食寵町國際企業有限公司</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.slcpf.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>星品國際實業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.jollypet.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>鎧帛實業有限公司</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.kaibo.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>品皇貿易股份有限公司</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>http://www.pinhwan.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>加拿大野性魅力有限公司</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://zh.charmpetfood.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>阿毛有限公司</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>http://www.amongforpets.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>沛德奧股份有限公司</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>http://www.petstro.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>原合股份有限公司</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>http://www.natural10.com.tw</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/vendors_data.xlsx
+++ b/output/vendors_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,6 +1157,4330 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>博恩能國際生醫股份有限公司</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://shop.psbubu-pet.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>逆風飛翔股份有限公司</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.meow-servant.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>怪獸製造有限公司</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://litomon.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>寵愛有家股份有限公司</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.doggywants.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>鈺揚國際實業有限公司</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.nanowave.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>昱碩國際事業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>http://www.youso.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>育晉興業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://capuccipet.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>螢火蟲原創有限公司</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.joyfood.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>東盈農牧股份有限公司</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>緯豪實業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>http://www.ezydog.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>盈寶寵物股份有限公司</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>http://www.bluebaypetfood.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>台灣愛邦仕實業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.abones.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>宇時聚金有限公司</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.blueberrytw.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>透思國際有限公司</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.mao-select.com.tw/mao/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>THAI TRADE OFFICE, TAIPEI</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.thaitrade.com/home</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>社團法人臺南市徐園長護生協會</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://hapatc.org.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>勤翔國際股份有限公司</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>http://natureslogic.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>耀月企業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>http://www.brimoon.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>木口木有限公司</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://tierlieb.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>毛怪樂園國際貿易有限公司</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.beastparadise.net/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>攝狗狗工作室</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/shotdogs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>翼比股份有限公司</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.ibiyaya.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>傑揚有限公司</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.jpw-pet.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>東翔實業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>http://www.unitedalbatriss.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>志飛企業有限公司</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>http://www.munmunpet.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>財欣國際股份有限公司</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.petpanny.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>白貝殼廣告影像有限公司</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.bunnyplanet.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>鎧文企業有限公司</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.wanmiaopetfood.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>威杰爾貿易有限公司</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://shopee.tw/li500225</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>德威金屬股份有限公司</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>竣和國際股份有限公司</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://tw.petique.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>冠閎實業有限公司</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.kuanhung.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>寵兒商貿有限公司</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://petpamper.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>飛起來行銷股份有限公司</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.furkidsstandup.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>勤達實業有限公司</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.maoonepet.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>璽玥生醫有限公司</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://jadeverpet.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>寶研生技有限公司</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.munchee.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>台灣瑪氏股份有限公司</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://twn.mars.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>金閤股份有限公司</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://jinhe.cyberbiz.co</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>應億企業有限公司</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>http://www.acepet.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>逗奇國際有限公司</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.airbuggy.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>培菓科技行銷有限公司</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>http://www.petco888.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>冠宸國際有限公司</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://northpaw.liteshop.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>福壽實業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://www.fwusow.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>豐奕達實業有限公司</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://shopee.tw/chogong</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>社團法人台灣狗腳印幸福聯盟</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://tpds.eoffering.org.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>台灣信元寵物食品股份有限公司</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://shop.singen.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>澳新美有限公司</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>http://anzustw.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>鐵漢工坊</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/%E9%90%B5%E6%BC%A2%E5%B7%A5%E5%9D%8A-239136870001001/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>宬泰有限公司</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>http://pet1.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>威饌股份有限公司</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://www.joinjoinclub.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>毛與家股份有限公司</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://www.homihomy.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>南宏工藝有限公司</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>http://www.nanhon.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>塔伯數位行銷股份有限公司</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://www.toponetw.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>鴻均商行</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://www.catwant.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>高翊紙器有限公司</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://www.cococatshop.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>茂捷有限公司</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://mjpets.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>喵予咪股份有限公司</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.popocat.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>摩米有限公司</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>http://www.momihay.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>奕騏有限公司</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.petwant.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>威笙實業有限公司</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.wellsonpet.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>桔鼎實業有限公司</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.nipper.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>鈞嵐企業有限公司</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://www.aibo.com.tw/index_tw.php</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>標達企業有限公司</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://www.vilapet.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>喬隆企業有限公司</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://www.auskommen.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>生寶水族寵物有限公司</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://www.fishlive.com.tw/tc/index.php</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>鴻姿企業有限公司</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://www.horngtyy.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>圓寵有限公司</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://www.carnivoreraw.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>斯普尼克有限公司</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://www.sputniktw.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>新加坡商旭潤有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/twdeguohaitun/?ref=page_internal</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>敏富有限公司</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://www.petexpo-shop.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>大爺股份有限公司</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://www.goodtimeph.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>中華海洋生技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://www.hiq-health.com/tw/product/seabassessence</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>馥齊有限公司</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://furkid-taiwan.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>全碩股份有限公司</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://www.dogcat-drkiwi.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>湧風電子商務有限公司</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://www.i-go.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>宏寶國際企業有限公司</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>http://www.baby-bait.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>嬌聯股份有限公司</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://www.unicharmpet.com.tw/zh-tw/about/index.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>永鴻國際生技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>http://www.koolpal.com.tw/tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>樂維科技有限公司</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://www.vilus.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>野狗隊長有限公司</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://www.wildy-buddy.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>敦品室內裝修工程有限公司</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://www.benjaminmoore.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>斑尼菲國際股份有限公司</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>http://www.benefitpet.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>保生實業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>http://www.psec.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>國歡企業有限公司</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://www.gofarco.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>皇宥寵物有限公司</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://www.meowdi.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>達福生醫股份有限公司</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://www.drfluff.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>威芳企業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://www.doaa.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>耐維滋寵物食品有限公司</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>寵兀森林有限公司</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>亞寵國際商業管理顧問有限公司</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://www.petbusiness.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>毛兒喜歡股份有限公司</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://www.mercifur.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>銀池數位文化有限公司</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://www.pawfy.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>碩達豐貿易有限公司</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/Sodafantw</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>南京寵嘉寵物用品有限公司</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>http://www.gigwi.cn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>芙菈菲寵物服飾店</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://www.fluffyboss2022.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>白手起稼有限公司</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://www.codymaomao.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>寵物工園企業有限公司</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>http://www.ppark.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>安琪國際有限公司</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://www.magicat.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>中華民國流浪動物花園協會</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>http://www.doghome.org.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>育文企業社</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/BomBom1225</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>華鋒科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://www.eastech-medical.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>易利扣有限公司</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://www.easylocksmart.com.tw/141018/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>奕勝紙器有限公司(卡特喵喵)</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>http://www.cartonmeow.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>愛眾科技有限公司</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://www.aimilkote.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>海牛寵物有限公司</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://missnpet.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>愛樂美實業有限公司</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>http://www.aroma-housewares.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>美利食材有限公司</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://meowsx2.1shop.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>金派庫國際有限公司</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://www.petcookco.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>意意創思行銷科技有限公司</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://www.horhorjoy.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>岡鍵實業有限公司</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>http://www.t-fence.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>晨菱生技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://www.goodmofamily.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>得仁生技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>http://shop.jcpets.store/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>好幫手無線科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://www.sitandwait.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>台灣美期有限公司</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>嗨寵物們股份有限公司</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://hipetchan.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>瑪瑪商行</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://www.fumeanstore.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>寬譜醫學科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://firapet.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>凱馳清潔設備股份有限公司</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>http://www.kaercher.com/tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>耀億工業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>http://www.lifeapp.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>玉美生技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://fongkong.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>沛麋股份有限公司</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>http://www.pepnme-shop.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>星承健康生技有限公司</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://www.starexbio.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>久富國際實業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>亞力森有限公司</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://arush.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>斑富比股份有限公司</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://www.poshpaws.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>全美生技有限公司</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://www.pawtypai.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>木木子平國際股份有限公司</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://www.kahu.com.tw/collections/playtogether</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>澤地萃貿易有限公司</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://www.gogoshower.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>艾爾發寵物企業社</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://alphapetstw.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>武昌貿易有限公司</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>http://www.fuchon.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>科普瑞國際股份有限公司</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://www.hello-pet.co/</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>瀚樺生物技術股份有限公司</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://www.maoaulife.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>淞亮股份有限公司</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://petting-more.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>星惠國際有限公司</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>http://www.pet-truelove.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>滿懿國際有限公司</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://www.manyii.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>青川淺有限公司</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/chingchuanchian/</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>貞合有限公司</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://www.treatmepets.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>中明美容材料行</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>旭凱國際股份有限公司</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>http://www.sportop.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>貓說的國際有限公司</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://www.catssay.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>吉創企業社</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://8plusdog.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>新雄企業有限公司</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://www.nanhuei.com/index</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>慶宇生技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://www.pet-tomodachi.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>昶風有限公司</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://septillionlove.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>龍丞生技有限公司</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>http://www.terrapin.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>沛特法寵物創意雜貨</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>http://www.petqbeq.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>台灣沛睿德股份有限公司</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://www.drpetreat.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>本農國際有限公司</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/fancypets.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>家得健康股份有限公司</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://www.sbm9e.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>日商瀧幸有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://www.hanalolo.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>新中美國際有限公司</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://www.zazazoo.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>鬼才有限公司</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://www.catzoo.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>祺城科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://www.o-care.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>元晨國際有限公司</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://www.macarropet.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>國際貓家有限公司</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/TWcatshouse/?fref=ts</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>聖嬰企業有限公司</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://www.stbaby.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>久爺貿易股份有限公司</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://www.maogougo.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>寵愛毛毛股份有限公司</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://th-th.facebook.com/maomaoeat.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>社團法人台灣之心愛護動物協會</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>http://www.hoac.org.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>昆豪企業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://www.urbaner.com.tw/zh-TW/collections/pet</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>富昱生化科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://www.fuelife.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>森宏生技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://www.lovitafood.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>毛樂國際有限公司</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://www.maolove.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>裕錩國際有限公司</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>http://www.evergold.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>常腸寵愛有限公司</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://www.alwayslovepet.com/team-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>圓融生物科技有限公司</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://www.ha-moni.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>品圖國際有限公司</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://www.pinjoy.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>科耐自然有限公司</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://www.elitepet.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>台義宇宙有限公司</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://www.pubutada.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>逢明企業有限公司</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://www.elitepet.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>乾杯股份有限公司</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://www.kanpai-mart.com.tw/pages/about-kpet</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>英悅寶股份有限公司</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://www.mellowpet.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>日商美巢股份有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://miranest.com/zh</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>萊莉國際有限公司</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>http://www.drwami.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>蘑菇生技有限公司</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://mowoodspet.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>大庭國際商業有限公司</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>http://www.hinokisensei.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>台灣禮藍動保股份有限公司</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://www.elancotw.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>春和有限公司</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://www.iloveoggi.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>詠寵有限公司</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://www.petganocare.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ADDICTIONS FOODS PTE. LTD.</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://addictionpet.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>塑舜實業有限公司</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://bardolife.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>志順企業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://www.packagingweb.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>彩彤企業社</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>http://www.whawhashop.com.tw/ecommerce/</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>友伴生活有限公司</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://www.yana.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>東方中宇國際有限公司</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://www.forhairy.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>鼎悅貿易有限公司(移動城堡）</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://www.pubt.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>台灣奧科股份有限公司</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://www.nodalabs.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>奇美企業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://www.chimei.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>普樂菓有限公司</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>http://www.perlapets.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>活立國際事業有限公司</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://www.dembygroup.com/zh-tw/product.php?act=list&amp;cid=3</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>羽唐有限公司</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://www.pureyu.com.tw/collections/purelifeall</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>凱翔科技有限公司</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://www.mowchipet.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>年年飽股份有限公司</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://www.pawsup365.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>立日和商行</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://www.momaopet.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>福樂寵工作室</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://www.welovechos.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>璐西亞國際貿易有限公司</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://www.lucia-lucas.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>星悅貿易股份有限公司</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://www.tailshill.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>沃森國際行銷管理顧問有限公司</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://awesomeinctw959.shoplineapp.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>多多寵物有限公司</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://www.crazypetsclub.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>崇盛國際科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://www.fluffynose.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>宜格利有限公司</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://gleepets.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>喬貝有限公司</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://www.jopet.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>肯佩有限公司</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://www.campet.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>喵吉拉寵物有限公司</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>https://meowzillaselect.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>巴斯企業社</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://mozopet.waca.ec/</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>綠動會股份有限公司</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>http://www.greesun.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>毛班長有限公司</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://www.mao.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>紘亮企業有限公司</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/thursdayeatcarrot.pet/</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>寵物百分百股份有限公司</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://shop.pet100pa.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>義烏市宏和進出口有限公司</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>肥貓里工作室</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>http://www.rawmarket.cyberbiz.co/</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>初肉企業社</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://true-raw.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>咘菲夏奇有限公司</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://www.maoday.pet/</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>美研秘生醫股份有限公司</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://www.cataroma.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>大大小小行創股份有限公司</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://www.bonbonpet.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>南方鳥股份有限公司</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://www.pet-woof.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>優舶股份有限公司</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://woo-fy.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>馬汀國際實業有限公司</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://www.martinformosa.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>永恆宇宙私旅寵物生命紀念股份有限公司</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://www.petjourney.ai/tabs/3_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>朋生國際有限公司</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>http://www.petfood-tw.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>德煌生醫科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://www.vetaiai.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>秉翔實業有限公司</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>八二數位科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://www.82print.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>嚮曜國際有限公司</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>https://www.goodypawty.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>樂芃寵物用品有限公司</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>鷹騰科技有限公司</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://www.mcddpet.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>聚茂生技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://www.acenature.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>台灣心零售股份有限公司</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://www.magpie-life.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>圓滾滾寵物有限公司</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>http://www.globalnanda.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>愷吾柔璞琳夢股份有限公司</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://www.k-uno.com.tw/product/kuno/ordermade/petjewelry</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>狗爺貓妞企業社</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://www.dkcqshop.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>萊可良品股份有限公司</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://www.likepets-official.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>維星生技有限公司</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>http://www.emg0077.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>楷崴商貿科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>https://www.rosehipvitalcanine.com.tw/collections/all</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>利得創新寵物食品股份有限公司</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://www.petdelux.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>TSSDA台灣流浪動物永續發展協會</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/TSSDA.2023/?locale=zh_TW</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>美商埃培智股份有限公司台灣分公司</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/PFI.TW</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>炘語寵物食品有限公司</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>https://nibo.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>愛寵有限公司</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>http://www.lovepet.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>楊竹科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>https://b2c.yangzhu.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>夢貝貝寵物用品</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>呼嚕喵有限公司</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>https://www.hulumeow.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>姆姆嗨國際企業社</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>https://mumuhipet.easy.co/</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>紐寵國際有限公司</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>https://nature-magic-tw.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>瑞博芙國際整合行銷有限公司</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>https://www.rebirth.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>思伯汀生活館</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>睿谹國際有限公司</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>https://fulgorjewel.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>敦昱科技有限公司</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>http://www.dunyutech.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>金貝貝有限公司</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/lovecat2013/?locale=zh_TW</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>群麗國際</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>https://reurl.cc/G4V1Kv</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>芝曲企業社(蛋董手作項圈)</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>https://www.eggmango.net</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>真巧防水墊商行</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>ANDYFAMILY手作選物</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/_andyfamily_/</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>江森企業社</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>https://www.dripgrass.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>建美國際股份有限公司</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>https://www.tw-kima.com/index.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>帛珅有限公司</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>https://www.chewingpower.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>群役企業社</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>https://www.kylepetshop.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>三牲四果有限公司</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>https://somethingstudiotaiwan.com/%E9%97%9C%E6%96%BCsomethingstudio/</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>豆豆泡泡有限公司</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>https://www.bubblenpea.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>偶遇喜有限公司</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>https://www.ouc.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>新昱企業有限公司</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>https://www.new-greenin.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>獸寵生物科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>https://www.zoophile.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>良牧商行</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://shopee.tw/chuyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>陞達商行</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://rollinghay.qdm.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>澤創工作室(MEOW手作樂園)</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://www.meowcraft2013.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>沛拓健康寵物有限公司</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://www.petpro.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>財團法人惠光導盲犬教育基金會</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>http://www.guidedog.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>瑪司嗑有限公司</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>https://www.marsmunch.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>臺北市流浪貓保護協會</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>http://www.mypet-club.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>形成双股份有限公司</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://www.pehomnyc.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>葛蕾蒂絲有限公司</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>https://shopee.tw/gladyschen4938</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>毛肉毛求有限公司</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>http://www.momeatmoball.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>日時好食股份有限公司</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>https://www.pushtw.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>呼魯創意股份有限公司</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>https://www.louiscatlitter.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>易玟企業有限公司</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>https://easyglory.tw/tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>芳菲寵物食品企業社</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>塞維亞服飾有限公司</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>https://www.surfrider2.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>映星股份有限公司</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>https://www.gozpet.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>寵物派對股份有限公司</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://www.letspawparty.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>悅之堯貿易有限公司</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://hopetcare.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>極勁股份有限公司</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>http://xpowerritello.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>達詠興業有限公司</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>http://www.dailysealing.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>熊老大食品企業社</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/bearshow2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>元福聯合科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>https://www.genesys-tech.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>咖啡獅寵物企業社</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>https://shopee.tw/coffeelion.pet</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>COZIE CAT CO., LTD.</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>何田企業有限公司</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/woolly.woolly_/</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>昂樂寵物精品有限公司</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>http://www.unleash.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>項圈工場主題寵物餐廳</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/tainantnag</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>沃非商行</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>https://www.happywoofytw.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>禾顗國際有限公司</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>https://www.andupets.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>福氣萌寵企業社</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>https://hiwaitwaiting2024.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>皮皮邦尼國際有限公司</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>https://www.woollyfever.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>東營東一新材料有限公司</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>http://en.doyee.net/</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>喵蘆</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/meowlo_petradise/profilecard/?igsh=MTNuZWVxZm9rYW9iZA%3D%3D</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>喵喵旺寵物用品商行</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>http://www.annanina.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>摩斯派特有限公司</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>https://www.mons-pet.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>田田樂園(香港)有限公司</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>https://www.boondog.com.hk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>MOMOTONE</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>https://momo-tone.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>毛腳印工作室</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>http://www.facebook.com/FluffyPawsStudio/</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>PAW跑市集</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>相達國際有限公司</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>http://shapushapu.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>毛係毛係</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>https://reurl.cc/Q52e4b</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>懶貓時氛工作室</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/fujimallow/</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>美滿毛生有限公司</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/man2pet/</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>艾拉旺設計有限公司</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>https://linktr.ee/ellawangpetdesign</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>AMUAMU工作室</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/amuamu_petscloset/</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>WTF!搞什麼?</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/wtfcaaatsss/</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/HOLOVEHANDMADE/#</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>秘秘星球</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>宸霈企業社</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/MADNESSMIII/</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>秋爽寵物插畫企業社</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/songwei_ciou/</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>有貓的日子真好</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>https://instagram.com/catsgoodday?igshid=MjkzY2Y1YTY=</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>圓臉人</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/CIRCULAR5132/</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>毛窩</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/MEOWOCAT_DOG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>QBABY씨</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/qbabyxi._.pet/</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>毛毛夥伴股份有限公司</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>https://www.puripuri.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>https://u-pet.me/</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>綠尾有限公司</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>https://greentailpets.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>安捷星物流股份有限公司</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>https://shopee.tw/cats.taste_taiwan</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>鈐盈實業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>https://www.windarepro.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>米梓國際整合有限公司</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/MichihMibar/?locale=zh_TW</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>PETBAY PTY LTD</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>https://refuresh.com.au/</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>QUANZHOU FEIFURUN PACKAGING PRINTING CO., LTD.</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>品鑫寵物國際有限公司</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>https://www.roppt.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>NEIL'S</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>捷威科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>https://www.mesure.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>享多有限公司</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>https://www.wagroovy.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>棲汐國際有限公司</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>https://shopee.tw/SKYPAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>嶸耀國際有限公司</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>https://acivv.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>威堡行股份有限公司</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>https://www.emaax.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>台灣蜜納國際股份有限公司</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>https://www.mbeaute.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>阿拉丁全球旅行社股份有限公司</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>https://www.aladdinglobal.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>佩波電商</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/pebohandmade/</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>金湛興業社</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/BOBO_10.10/#</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>台灣阿克蘇諾貝爾塗料股份有限公司</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>https://www.duluxtaiwan.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>優米設計有限公司</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>十億國際股份有限公司</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>https://www.fellowproducts.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>佶旺有限公司</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>http://www.giwan.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>汪汪旺股份有限公司</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>https://www.n4h.life/</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>EVERGUT TRADING COMPANY</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>https://www.gutsdog.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>瀚德實企業社</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>亞企食材科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>http://www.achi-foods.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>張家港宏美刀剪有限公司</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>http://www.zghmjd.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>寵訊生醫股份有限公司</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>https://petcision.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>連鈞科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>https://www.liangermagic.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>徐州聚生源生物科技有限公司</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>https://catbole.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>博通生技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>https://www.advocateasia.com/pettest</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>馗鼎奈米科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>https://www.timagicalfresh.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>復頤有限公司</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>https://www.richone.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>羣展科技實業有限公司</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>http://www.shield-baby.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>梅德農夫有限公司</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>https://www.madfarmers.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>社團法人中華民國保護動物協會</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>https://www.apatw.org/</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>WLSV</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>https://www.billysvet.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>沐陽文化事業有限公司</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>https://www.muyang49.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>AGRICULTURAL CORPORATION COMPANY A COMMECAT., LTD. (GORORONG)</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>https://gororongglobal.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>DANGHANMARKET CO., LTD.</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>https://lorenzmall.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>榮甸國際股份有限公司</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>https://www.auraair.com.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>S GLOBAL INC.</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>https://www.pealth.co.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>CAREFORU INC.</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>https://www.tailody.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>德清康邑貿易有限公司</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>達希實業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>https://www.daiwanmeow.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>旺皇實業有限公司</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>http://www.welldiet.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>億菱實業股份有限公司</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>https://www.hamcomfg.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>頤和文化事業有限公司</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>http://www.hotpets.com.tw</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>中華民國寵物食品及用品商業同業公會</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>http://www.cpfaa.org.tw/</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>北京又見科技有限公司</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
